--- a/unwanted_station.xlsx
+++ b/unwanted_station.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAUL\kelegram_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAUL\pythonProject\med_telegram_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="A4:O6"/>
+      <selection activeCell="P14" sqref="A4:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
